--- a/tabla-interacciones4.xlsx
+++ b/tabla-interacciones4.xlsx
@@ -772,7 +772,7 @@
     <t>INFORMACION</t>
   </si>
   <si>
-    <t>200_300</t>
+    <t>200-300</t>
   </si>
   <si>
     <t>YAYAYA</t>
